--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22170" windowHeight="5355" xr2:uid="{147C18DC-9075-47AE-BC22-CD6CC1D94871}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22170" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PARAMETER!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>メインキー</t>
     <phoneticPr fontId="1"/>
@@ -82,12 +81,40 @@
   <si>
     <t>増えました</t>
   </si>
+  <si>
+    <t>PAGE_VIEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +202,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,21 +512,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F035A06-C949-4DB2-B4DF-F4B0AE2F2A9A}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
@@ -504,7 +534,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -526,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -537,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -559,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -570,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,22 +611,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{6B4755B9-50B5-4492-88B9-D0DA25B9A1AE}"/>
+  <autoFilter ref="A1:C7"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pleiades\workspace\isol-3g\app-common\src\main\resources\META-INF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22170" windowHeight="5355"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
@@ -106,15 +111,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3</t>
+    <t>0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,21 +517,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
@@ -534,7 +539,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -556,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -578,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -589,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -600,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -611,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -619,10 +624,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -630,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -641,11 +646,11 @@
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pleiades\workspace\isol-3g\app-common\src\main\resources\META-INF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22170" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>メインキー</t>
     <phoneticPr fontId="1"/>
@@ -114,12 +109,32 @@
     <t>0</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HEALTH_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV_FILE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\"HealthInfo.csv\"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\"ReferenceResult.csv\"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REFERNCE_RESULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,21 +532,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
@@ -539,7 +554,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -561,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -572,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -583,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -594,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -605,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -616,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -627,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -638,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -649,8 +664,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C7"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pleiades\workspace\isol-3g\app-common\src\main\resources\META-INF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22170" windowHeight="5355"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>メインキー</t>
     <phoneticPr fontId="1"/>
@@ -129,12 +134,27 @@
     <t>REFERNCE_RESULT</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,21 +552,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
@@ -554,7 +574,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -576,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -587,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -609,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -631,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -642,7 +662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -653,7 +673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -664,30 +684,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\"HealthInfo.csv\"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\"ReferenceResult.csv\"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>REFERNCE_RESULT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,6 +140,14 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>HealthInfo.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReferenceResult.csv</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -686,24 +686,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -722,10 +722,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/app-common/src/main/resources/META-INF/codeParameter.xlsx
+++ b/app-common/src/main/resources/META-INF/codeParameter.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pleiades\workspace\isol-3g\app-common\src\main\resources\META-INF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22170" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22170" windowHeight="5355"/>
   </bookViews>
   <sheets>
-    <sheet name="PARAMETER" sheetId="1" r:id="rId1"/>
+    <sheet name="CODE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PARAMETER!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CODE!$A$1:$C$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -153,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,21 +547,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" bestFit="1" customWidth="1"/>
@@ -574,7 +569,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -596,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -607,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -618,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -629,7 +624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -640,7 +635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -651,7 +646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -662,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -673,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -684,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -695,7 +690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -706,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -717,7 +712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -729,7 +724,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C7"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
